--- a/data/trans_orig/IP19C05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP19C05-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF79E240-98D9-49DE-B72C-4541800B7663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57580DA3-BDE7-4E00-8D72-9D2229DDD1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{01662C78-A05E-4956-9283-C7654DB04811}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{55A7E00B-9531-4D51-97C9-1E99BFD78186}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="183">
   <si>
     <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -85,13 +85,13 @@
     <t>1,86%</t>
   </si>
   <si>
-    <t>9,28%</t>
+    <t>10,33%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>5,35%</t>
+    <t>4,88%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,13 +109,13 @@
     <t>98,14%</t>
   </si>
   <si>
-    <t>90,72%</t>
+    <t>89,67%</t>
   </si>
   <si>
     <t>99,03%</t>
   </si>
   <si>
-    <t>94,65%</t>
+    <t>95,12%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -124,10 +124,10 @@
     <t>1,44%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
   </si>
   <si>
     <t>0,82%</t>
@@ -136,28 +136,31 @@
     <t>0,26%</t>
   </si>
   <si>
-    <t>2,33%</t>
+    <t>2,48%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>2,29%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
   </si>
   <si>
     <t>98,56%</t>
   </si>
   <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
   </si>
   <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>97,67%</t>
+    <t>97,52%</t>
   </si>
   <si>
     <t>99,74%</t>
@@ -166,7 +169,10 @@
     <t>98,86%</t>
   </si>
   <si>
-    <t>97,71%</t>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -178,376 +184,379 @@
     <t>0,84%</t>
   </si>
   <si>
-    <t>4,23%</t>
+    <t>5,03%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
   </si>
   <si>
     <t>97,85%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2016 (Tasa respuesta: 48,78%)</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
   </si>
   <si>
     <t>97,76%</t>
   </si>
   <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
   </si>
   <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
   </si>
   <si>
     <t>98,5%</t>
   </si>
   <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2015 (Tasa respuesta: 48,78%)</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
+    <t>95,3%</t>
   </si>
   <si>
     <t>98,06%</t>
   </si>
   <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
   </si>
   <si>
     <t>1,67%</t>
   </si>
   <si>
-    <t>0,74%</t>
+    <t>0,81%</t>
   </si>
   <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
+    <t>4,1%</t>
   </si>
   <si>
     <t>2,09%</t>
@@ -556,28 +565,25 @@
     <t>1,35%</t>
   </si>
   <si>
-    <t>3,12%</t>
+    <t>3,15%</t>
   </si>
   <si>
     <t>98,33%</t>
   </si>
   <si>
-    <t>99,26%</t>
+    <t>99,19%</t>
   </si>
   <si>
     <t>97,49%</t>
   </si>
   <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
+    <t>95,9%</t>
   </si>
   <si>
     <t>97,91%</t>
   </si>
   <si>
-    <t>96,88%</t>
+    <t>96,85%</t>
   </si>
   <si>
     <t>98,65%</t>
@@ -992,7 +998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16F1E5B-8560-48C4-AB40-3AEB2DA489D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55BF0F68-F3DF-4C54-A5AF-62BBC81D0AEA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1304,10 +1310,10 @@
         <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1322,13 +1328,13 @@
         <v>242191</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>340</v>
@@ -1337,13 +1343,13 @@
         <v>226440</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>707</v>
@@ -1352,13 +1358,13 @@
         <v>468632</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1414,7 +1420,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1432,7 +1438,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1441,13 +1447,13 @@
         <v>632</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -1456,13 +1462,13 @@
         <v>632</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1480,7 +1486,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -1492,10 +1498,10 @@
         <v>75051</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -1507,10 +1513,10 @@
         <v>148168</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -1581,13 +1587,13 @@
         <v>3532</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -1599,10 +1605,10 @@
         <v>16</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -1614,10 +1620,10 @@
         <v>16</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1632,13 +1638,13 @@
         <v>358199</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H14" s="7">
         <v>517</v>
@@ -1650,10 +1656,10 @@
         <v>24</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M14" s="7">
         <v>1057</v>
@@ -1665,10 +1671,10 @@
         <v>24</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,7 +1730,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1743,7 +1749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54E9E5B-6344-4AF4-985A-82BABA7C48AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF118668-9F1D-454A-9C93-591E05E71931}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1760,7 +1766,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1873,7 +1879,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -1882,13 +1888,13 @@
         <v>1265</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -1897,13 +1903,13 @@
         <v>1265</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,7 +1927,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -1933,10 +1939,10 @@
         <v>46699</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -1948,10 +1954,10 @@
         <v>89663</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2022,13 +2028,13 @@
         <v>4087</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -2037,13 +2043,13 @@
         <v>3901</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -2052,13 +2058,13 @@
         <v>7988</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,13 +2079,13 @@
         <v>236826</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H8" s="7">
         <v>310</v>
@@ -2088,13 +2094,13 @@
         <v>216577</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M8" s="7">
         <v>651</v>
@@ -2103,13 +2109,13 @@
         <v>453403</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2165,7 +2171,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2177,13 +2183,13 @@
         <v>2131</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2192,13 +2198,13 @@
         <v>4120</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -2207,13 +2213,13 @@
         <v>6251</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,13 +2234,13 @@
         <v>79994</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H11" s="7">
         <v>114</v>
@@ -2243,28 +2249,28 @@
         <v>81428</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M11" s="7">
         <v>229</v>
       </c>
       <c r="N11" s="7">
-        <v>161423</v>
+        <v>161422</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,7 +2312,7 @@
         <v>238</v>
       </c>
       <c r="N12" s="7">
-        <v>167674</v>
+        <v>167673</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>21</v>
@@ -2332,10 +2338,10 @@
         <v>6218</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>114</v>
@@ -2350,10 +2356,10 @@
         <v>115</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -2362,7 +2368,7 @@
         <v>15504</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>118</v>
@@ -2383,13 +2389,13 @@
         <v>359784</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>120</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H14" s="7">
         <v>491</v>
@@ -2404,7 +2410,7 @@
         <v>122</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>1006</v>
@@ -2413,7 +2419,7 @@
         <v>704488</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>124</v>
@@ -2475,7 +2481,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2494,7 +2500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A40549-C37F-4991-AB75-A0B6DF5F59A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52069BB8-B130-4300-90BC-BAD2E5728C21}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2776,10 +2782,10 @@
         <v>137</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -2788,10 +2794,10 @@
         <v>7227</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>141</v>
@@ -2803,13 +2809,13 @@
         <v>11286</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,13 +2830,13 @@
         <v>248111</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="H8" s="7">
         <v>360</v>
@@ -2845,7 +2851,7 @@
         <v>148</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>35</v>
+        <v>149</v>
       </c>
       <c r="M8" s="7">
         <v>702</v>
@@ -2854,13 +2860,13 @@
         <v>493623</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2916,7 +2922,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2928,13 +2934,13 @@
         <v>2094</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2943,13 +2949,13 @@
         <v>1313</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -2958,13 +2964,13 @@
         <v>3407</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2979,13 +2985,13 @@
         <v>85604</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H11" s="7">
         <v>122</v>
@@ -2994,10 +3000,10 @@
         <v>86427</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3009,13 +3015,13 @@
         <v>172030</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,13 +3089,13 @@
         <v>6153</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -3098,13 +3104,13 @@
         <v>9104</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -3113,13 +3119,13 @@
         <v>15257</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3140,13 @@
         <v>361855</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H14" s="7">
         <v>514</v>
@@ -3149,13 +3155,13 @@
         <v>353514</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="M14" s="7">
         <v>1016</v>
@@ -3164,13 +3170,13 @@
         <v>715369</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,7 +3232,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP19C05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP19C05-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57580DA3-BDE7-4E00-8D72-9D2229DDD1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0B4C3C8-CC69-4168-90F5-6116889B27DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{55A7E00B-9531-4D51-97C9-1E99BFD78186}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{91E2C439-76EA-42A9-AA93-CED6AA8D5BBA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="181">
   <si>
     <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,30 +73,36 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>1,86%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>10,35%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
     <t>2,95%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>4,88%</t>
+    <t>4,84%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
@@ -106,106 +112,106 @@
     <t>100%</t>
   </si>
   <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
     <t>99,03%</t>
   </si>
   <si>
-    <t>95,12%</t>
+    <t>95,16%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
   </si>
   <si>
     <t>98,56%</t>
   </si>
   <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
   </si>
   <si>
     <t>98,86%</t>
   </si>
   <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>2,1%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
   </si>
   <si>
     <t>98,26%</t>
   </si>
   <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
     <t>99,58%</t>
   </si>
   <si>
-    <t>97,9%</t>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
   </si>
   <si>
     <t>0,98%</t>
@@ -214,40 +220,22 @@
     <t>0,37%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
   </si>
   <si>
     <t>99,02%</t>
   </si>
   <si>
-    <t>97,73%</t>
-  </si>
-  <si>
     <t>99,63%</t>
   </si>
   <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
+    <t>99,52%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -256,34 +244,43 @@
     <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2012 (Tasa respuesta: 48,98%)</t>
   </si>
   <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
     <t>3,19%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>5,51%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
   </si>
   <si>
     <t>96,81%</t>
   </si>
   <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>94,49%</t>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
   </si>
   <si>
     <t>1,7%</t>
@@ -292,298 +289,295 @@
     <t>0,6%</t>
   </si>
   <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
   </si>
   <si>
     <t>3,73%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
   <si>
     <t>96,27%</t>
   </si>
   <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
+    <t>92,8%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>4,32%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
   </si>
   <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
   </si>
   <si>
     <t>97,38%</t>
   </si>
   <si>
-    <t>95,68%</t>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
   </si>
   <si>
     <t>97,85%</t>
   </si>
   <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
   </si>
   <si>
     <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2016 (Tasa respuesta: 48,78%)</t>
   </si>
   <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
     <t>4,66%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>5,77%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
   </si>
   <si>
     <t>95,34%</t>
   </si>
   <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
     <t>98,88%</t>
   </si>
   <si>
-    <t>94,23%</t>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
+    <t>3,56%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
   </si>
   <si>
     <t>98,39%</t>
   </si>
   <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
+    <t>96,44%</t>
   </si>
   <si>
     <t>97,76%</t>
   </si>
   <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
   </si>
   <si>
     <t>2,39%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
   </si>
   <si>
     <t>97,61%</t>
   </si>
   <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
   </si>
   <si>
     <t>98,06%</t>
   </si>
   <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
   </si>
   <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
+    <t>3,12%</t>
   </si>
   <si>
     <t>97,49%</t>
   </si>
   <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
   </si>
   <si>
     <t>98,65%</t>
@@ -998,7 +992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55BF0F68-F3DF-4C54-A5AF-62BBC81D0AEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04EC147E-8A32-444E-B0AA-5C4937219F72}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1116,10 +1110,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>873</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1131,16 +1125,16 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>873</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -1155,7 +1149,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>17</v>
@@ -1167,10 +1161,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D5" s="7">
-        <v>42891</v>
+        <v>46053</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1182,19 +1176,19 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I5" s="7">
-        <v>46053</v>
+        <v>42891</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>133</v>
@@ -1209,7 +1203,7 @@
         <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1218,34 +1212,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>70</v>
+      </c>
+      <c r="D6" s="7">
+        <v>46926</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
         <v>64</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>42891</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7">
-        <v>70</v>
-      </c>
-      <c r="I6" s="7">
-        <v>46926</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>134</v>
@@ -1254,13 +1248,13 @@
         <v>89816</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1271,10 +1265,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>3532</v>
+        <v>1882</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
@@ -1286,10 +1280,10 @@
         <v>29</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>1882</v>
+        <v>3532</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>30</v>
@@ -1322,10 +1316,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="D8" s="7">
-        <v>242191</v>
+        <v>226440</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>36</v>
@@ -1337,10 +1331,10 @@
         <v>38</v>
       </c>
       <c r="H8" s="7">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="I8" s="7">
-        <v>226440</v>
+        <v>242191</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>39</v>
@@ -1373,34 +1367,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>343</v>
+      </c>
+      <c r="D9" s="7">
+        <v>228322</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
         <v>372</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>245723</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7">
-        <v>343</v>
-      </c>
-      <c r="I9" s="7">
-        <v>228322</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>715</v>
@@ -1409,13 +1403,13 @@
         <v>474045</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1426,31 +1420,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>632</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>632</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>48</v>
@@ -1465,7 +1459,7 @@
         <v>49</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>50</v>
@@ -1477,34 +1471,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" s="7">
-        <v>73117</v>
+        <v>75051</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I11" s="7">
-        <v>75051</v>
+        <v>73117</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>53</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
         <v>217</v>
@@ -1519,7 +1513,7 @@
         <v>55</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1531,31 +1525,31 @@
         <v>109</v>
       </c>
       <c r="D12" s="7">
-        <v>73117</v>
+        <v>75683</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>109</v>
       </c>
       <c r="I12" s="7">
-        <v>75683</v>
+        <v>73117</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>218</v>
@@ -1564,13 +1558,13 @@
         <v>148800</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1584,31 +1578,31 @@
         <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>3532</v>
+        <v>3387</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>3387</v>
+        <v>3532</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>59</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -1620,10 +1614,10 @@
         <v>16</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1632,34 +1626,34 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>517</v>
+      </c>
+      <c r="D14" s="7">
+        <v>347543</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="7">
         <v>540</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>358199</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="7">
-        <v>517</v>
-      </c>
-      <c r="I14" s="7">
-        <v>347543</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M14" s="7">
         <v>1057</v>
@@ -1671,10 +1665,10 @@
         <v>24</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1683,34 +1677,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>522</v>
+      </c>
+      <c r="D15" s="7">
+        <v>350930</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
         <v>545</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>361731</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
-        <v>522</v>
-      </c>
-      <c r="I15" s="7">
-        <v>350930</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>1067</v>
@@ -1719,18 +1713,18 @@
         <v>712661</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1749,7 +1743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF118668-9F1D-454A-9C93-591E05E71931}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1FC362-462E-42E7-B2DA-2B25EE9DD7E7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1766,7 +1760,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1867,34 +1861,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1265</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>1265</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -1903,13 +1897,13 @@
         <v>1265</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,34 +1912,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D5" s="7">
-        <v>42963</v>
+        <v>46699</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="I5" s="7">
-        <v>46699</v>
+        <v>42963</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>126</v>
@@ -1954,13 +1948,13 @@
         <v>89663</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,34 +1963,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>69</v>
+      </c>
+      <c r="D6" s="7">
+        <v>47964</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
         <v>59</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>42963</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7">
-        <v>69</v>
-      </c>
-      <c r="I6" s="7">
-        <v>47964</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>128</v>
@@ -2005,13 +1999,13 @@
         <v>90928</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2022,34 +2016,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3901</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="7">
         <v>6</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>4087</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="7">
-        <v>5</v>
-      </c>
-      <c r="I7" s="7">
-        <v>3901</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -2058,13 +2052,13 @@
         <v>7988</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,34 +2067,34 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
+        <v>310</v>
+      </c>
+      <c r="D8" s="7">
+        <v>216577</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="7">
         <v>341</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>236826</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H8" s="7">
-        <v>310</v>
-      </c>
-      <c r="I8" s="7">
-        <v>216577</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M8" s="7">
         <v>651</v>
@@ -2109,13 +2103,13 @@
         <v>453403</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2124,34 +2118,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>315</v>
+      </c>
+      <c r="D9" s="7">
+        <v>220478</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
         <v>347</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>240913</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7">
-        <v>315</v>
-      </c>
-      <c r="I9" s="7">
-        <v>220478</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>662</v>
@@ -2160,13 +2154,13 @@
         <v>461391</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,34 +2171,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4120</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" s="7">
         <v>3</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>2131</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" s="7">
-        <v>6</v>
-      </c>
-      <c r="I10" s="7">
-        <v>4120</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -2213,13 +2207,13 @@
         <v>6251</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,34 +2222,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>114</v>
+      </c>
+      <c r="D11" s="7">
+        <v>81428</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="7">
         <v>115</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>79994</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="H11" s="7">
-        <v>114</v>
-      </c>
-      <c r="I11" s="7">
-        <v>81428</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M11" s="7">
         <v>229</v>
@@ -2264,13 +2258,13 @@
         <v>161422</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,34 +2273,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>120</v>
+      </c>
+      <c r="D12" s="7">
+        <v>85548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7">
         <v>118</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>82125</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="7">
-        <v>120</v>
-      </c>
-      <c r="I12" s="7">
-        <v>85548</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>238</v>
@@ -2315,13 +2309,13 @@
         <v>167673</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,31 +2326,31 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>6218</v>
+        <v>9286</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H13" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>9286</v>
+        <v>6218</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>116</v>
@@ -2383,49 +2377,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>491</v>
+      </c>
+      <c r="D14" s="7">
+        <v>344705</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="7">
         <v>515</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>359784</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H14" s="7">
-        <v>491</v>
-      </c>
-      <c r="I14" s="7">
-        <v>344705</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="M14" s="7">
         <v>1006</v>
       </c>
       <c r="N14" s="7">
-        <v>704488</v>
+        <v>704489</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,54 +2428,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>504</v>
+      </c>
+      <c r="D15" s="7">
+        <v>353991</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
         <v>524</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>366002</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
-        <v>504</v>
-      </c>
-      <c r="I15" s="7">
-        <v>353991</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>1028</v>
       </c>
       <c r="N15" s="7">
-        <v>719992</v>
+        <v>719993</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2500,7 +2494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52069BB8-B130-4300-90BC-BAD2E5728C21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22FD99D-E898-4570-B942-369A75BB448C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2517,7 +2511,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2618,34 +2612,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>564</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2654,13 +2648,13 @@
         <v>564</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,34 +2663,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D5" s="7">
-        <v>28141</v>
+        <v>21575</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I5" s="7">
-        <v>21575</v>
+        <v>28141</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>72</v>
@@ -2705,13 +2699,13 @@
         <v>49716</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,34 +2714,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7">
+        <v>22139</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
         <v>40</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>28141</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7">
-        <v>33</v>
-      </c>
-      <c r="I6" s="7">
-        <v>22139</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>73</v>
@@ -2756,13 +2750,13 @@
         <v>50280</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,34 +2767,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7">
+        <v>7227</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="7">
         <v>5</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>4059</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H7" s="7">
-        <v>10</v>
-      </c>
-      <c r="I7" s="7">
-        <v>7227</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -2809,13 +2803,13 @@
         <v>11286</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,34 +2818,34 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
+        <v>360</v>
+      </c>
+      <c r="D8" s="7">
+        <v>245513</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" s="7">
         <v>342</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>248111</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H8" s="7">
-        <v>360</v>
-      </c>
-      <c r="I8" s="7">
-        <v>245513</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="M8" s="7">
         <v>702</v>
@@ -2860,13 +2854,13 @@
         <v>493623</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,34 +2869,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>370</v>
+      </c>
+      <c r="D9" s="7">
+        <v>252740</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
         <v>347</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>252170</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7">
-        <v>370</v>
-      </c>
-      <c r="I9" s="7">
-        <v>252740</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>717</v>
@@ -2911,13 +2905,13 @@
         <v>504909</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2928,34 +2922,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>2094</v>
+        <v>1313</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>155</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>1313</v>
+        <v>2094</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>156</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -2964,13 +2958,13 @@
         <v>3407</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2979,34 +2973,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D11" s="7">
-        <v>85604</v>
+        <v>86427</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>162</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="7">
+        <v>120</v>
+      </c>
+      <c r="I11" s="7">
+        <v>85604</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="H11" s="7">
-        <v>122</v>
-      </c>
-      <c r="I11" s="7">
-        <v>86427</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>242</v>
@@ -3030,34 +3024,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>124</v>
+      </c>
+      <c r="D12" s="7">
+        <v>87740</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7">
         <v>123</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>87698</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="7">
-        <v>124</v>
-      </c>
-      <c r="I12" s="7">
-        <v>87740</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>247</v>
@@ -3066,13 +3060,13 @@
         <v>175437</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,10 +3077,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>6153</v>
+        <v>9104</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>169</v>
@@ -3095,22 +3089,22 @@
         <v>170</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="H13" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>9104</v>
+        <v>6153</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -3119,13 +3113,13 @@
         <v>15257</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,34 +3128,34 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="D14" s="7">
-        <v>361855</v>
+        <v>353514</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>177</v>
       </c>
       <c r="H14" s="7">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="I14" s="7">
-        <v>353514</v>
+        <v>361855</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M14" s="7">
         <v>1016</v>
@@ -3170,13 +3164,13 @@
         <v>715369</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,34 +3179,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>527</v>
+      </c>
+      <c r="D15" s="7">
+        <v>362618</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
         <v>510</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>368008</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
-        <v>527</v>
-      </c>
-      <c r="I15" s="7">
-        <v>362618</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>1037</v>
@@ -3221,18 +3215,18 @@
         <v>730626</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
